--- a/bio_convention_expositores.xlsx
+++ b/bio_convention_expositores.xlsx
@@ -2374,7 +2374,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ABRAM Therapeutics Limited (ABRAM),has been admitted intoRoche AcceleratorApril 1, 2025.We have successfully concluded the pre-clinical PCC experiment for a pioneering asset aimed at transient arginine depletion. We are seeking an investment of USD 8 million to finalize the generation of first-in-human weight loss data at 4 weeks and 12 weeks by the end of 2026.</t>
+          <t>ABRAM Therapeutics Limited (ABRAM),has been admitted intoRoche AcceleratorApril 1, 2025.We have successfully concluded the pre-clinical PCC experiment for a pioneering asset aimed at transient arginine depletion. We are seeking an investment of USD 10 million to finalize the generation of first-in-human weight loss data by the end of 2026.</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aivo Biosciences' lead program is a novelallosteric muscarinic receptor agonist (non-PAM), initially being developed forschizophrenia. The lead small molecule, now advancing intoIND-enabling GLP toxicology studies, demonstratessuperior efficacy, safety, pharmacokinetic and drug-like propertiescompared to xanomeline and xanomeline-based compounds, overcoming key limitations such as suboptimal efficacy, poor selectivity, short half-life, and tolerability / safety issues. It hashigh potency on M1 (EC₅₀ ~1 nM),low nM M4 activity,&gt;1000-fold selectivity over M2, M3, and M5 subtypes, as well as high brain penetration. The company leadership brings a proven track record in muscarinic agonist development and successfully taking biotech companies from academia to exit.</t>
+          <t>Aivo Biosciences' lead program is a novelallosteric muscarinic receptor agonist (non-PAM), initially being developed forschizophrenia. The lead small molecule, now advancing intoIND-enabling GLP toxicology studies, demonstratessuperior efficacy, safety, pharmacokinetic and drug-like propertiescompared to xanomeline and xanomeline-based compounds -overcoming key limitations such as suboptimal efficacy, poor selectivity, short half-life, and tolerability / safety issues. It hashigh potency on M1 (EC₅₀ ~1 nM),low nM M4 activity,&gt;1000-fold selectivity over M2, M3, and M5 subtypes, as well as high brain penetration. The company leadership brings a proven track record in muscarinic agonist development and successfully taking biotech companies from academia to exit.</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Alivexis, Inc.</t>
+          <t>Alivexis, Inc. - Duplicate</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Alivexis, formerly Modulus Discovery, is a small molecule drug discovery company with a proprietary fast and accurate simulation + AI platform that enables efficient discovery of clinical candidates in the areas of oncology and immunology.Roy Kimura, Co-founder and CEO, will be presenting recent developments for the company's pipeline &amp; platform onTuesday, June 17 at 3:30 PM in Room 153C at the BIO International Convention.</t>
+          <t>Alivexis, formerly Modulus Discovery, is a small molecule drug discovery company with a proprietary fast and accurate simulation platform that enables efficient discovery of clinical candidates in the areas of oncology and immunology.</t>
         </is>
       </c>
     </row>
